--- a/data/trans_bre/P1435_2011_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1435_2011_2023-Provincia-trans_bre.xlsx
@@ -609,14 +609,14 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3641463314088255</v>
+        <v>0.1379680939311264</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.926233420826799</v>
+        <v>1.547493878331333</v>
       </c>
       <c r="E5" s="6" t="inlineStr"/>
       <c r="F5" s="6" t="n">
-        <v>0.4824352667209902</v>
+        <v>0.374453649495839</v>
       </c>
     </row>
     <row r="6">
@@ -627,14 +627,14 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.812749383861392</v>
+        <v>3.809046333284374</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.809401641852592</v>
+        <v>6.761903122033054</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>7.726733948505282</v>
+        <v>7.862469367829176</v>
       </c>
     </row>
     <row r="7">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.6075049796238</v>
+        <v>1.701370162420293</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.485469000195319</v>
+        <v>3.630104780545385</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.7513162225947142</v>
+        <v>0.8921394376539598</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.286110850568504</v>
+        <v>1.296765796435638</v>
       </c>
     </row>
     <row r="9">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.817146433399756</v>
+        <v>5.827317004919576</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.037243281939487</v>
+        <v>8.069973285966414</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>21.04598922177488</v>
+        <v>20.96596783464198</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>16.78382361150486</v>
+        <v>16.37875200598475</v>
       </c>
     </row>
     <row r="10">
@@ -735,14 +735,14 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.015661144222831</v>
+        <v>1.9944943933832</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.350035128473441</v>
+        <v>3.189296065407806</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>1.050261244770276</v>
+        <v>0.9157911841850079</v>
       </c>
     </row>
     <row r="12">
@@ -753,14 +753,14 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.965765280618996</v>
+        <v>6.48179114429319</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.104597486149327</v>
+        <v>8.53135135686234</v>
       </c>
       <c r="E12" s="6" t="inlineStr"/>
       <c r="F12" s="6" t="n">
-        <v>9.113058011788485</v>
+        <v>8.867767266967842</v>
       </c>
     </row>
     <row r="13">
@@ -778,13 +778,13 @@
         <v>5.176508269121046</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7.687269892030496</v>
+        <v>7.687269892030499</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>6.611456686458847</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>24.40763882805978</v>
+        <v>24.40763882805979</v>
       </c>
     </row>
     <row r="14">
@@ -795,16 +795,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.894147265965721</v>
+        <v>3.005665864773165</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.543632269054592</v>
+        <v>5.675281873862796</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.9842392276001212</v>
+        <v>1.243506488499392</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6.021287754992859</v>
+        <v>5.157474593863942</v>
       </c>
     </row>
     <row r="15">
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.729689461405371</v>
+        <v>7.785014797717523</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.983653205682257</v>
+        <v>9.940434163480765</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28.73326253564155</v>
+        <v>27.66254229301841</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
     </row>
@@ -840,7 +840,7 @@
         <v>4.693577139544674</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5.962987162563669</v>
+        <v>5.962987162563667</v>
       </c>
       <c r="E16" s="6" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="F16" s="6" t="n">
-        <v>3.289681146809697</v>
+        <v>3.289681146809696</v>
       </c>
     </row>
     <row r="17">
@@ -859,14 +859,14 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.377821792624705</v>
+        <v>2.377981367371942</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.531917395263773</v>
+        <v>2.600996745496023</v>
       </c>
       <c r="E17" s="6" t="inlineStr"/>
       <c r="F17" s="6" t="n">
-        <v>0.1696097075559846</v>
+        <v>0.4200969131163482</v>
       </c>
     </row>
     <row r="18">
@@ -877,14 +877,14 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.970865385443582</v>
+        <v>8.413757247842357</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.635868660537964</v>
+        <v>8.870223548490607</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>12.52721611246177</v>
+        <v>18.14815281639187</v>
       </c>
     </row>
     <row r="19">
@@ -919,14 +919,14 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8241575555584792</v>
+        <v>0.7273555273917054</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.729203633397109</v>
+        <v>7.004396167935761</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>2.581347787930763</v>
+        <v>2.694399334624417</v>
       </c>
     </row>
     <row r="21">
@@ -937,14 +937,14 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.567249604959476</v>
+        <v>5.260197375519373</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.48681020967235</v>
+        <v>12.67303266735995</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>20.63456715623855</v>
+        <v>20.0216359920726</v>
       </c>
     </row>
     <row r="22">
@@ -968,7 +968,7 @@
         <v>12.00285963053636</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4.564865793657583</v>
+        <v>4.564865793657582</v>
       </c>
     </row>
     <row r="23">
@@ -979,16 +979,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.169356433463233</v>
+        <v>2.189043594638109</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.591786441394712</v>
+        <v>8.784403149542555</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1.874396813575024</v>
+        <v>1.455411515270151</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2.028456033815871</v>
+        <v>2.189435874490999</v>
       </c>
     </row>
     <row r="24">
@@ -999,14 +999,14 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.617554157412885</v>
+        <v>5.503790612979157</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.92125379844035</v>
+        <v>14.02888902341184</v>
       </c>
       <c r="E24" s="6" t="inlineStr"/>
       <c r="F24" s="6" t="n">
-        <v>8.594707356281083</v>
+        <v>9.19521968818705</v>
       </c>
     </row>
     <row r="25">
@@ -1024,7 +1024,7 @@
         <v>2.078273372844924</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>5.887710127472101</v>
+        <v>5.887710127472102</v>
       </c>
       <c r="E25" s="6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="F25" s="6" t="n">
-        <v>2.989520019959364</v>
+        <v>2.989520019959365</v>
       </c>
     </row>
     <row r="26">
@@ -1043,14 +1043,14 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.220039394433338</v>
+        <v>1.174443565118118</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.103227969079618</v>
+        <v>3.91897458835991</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>1.340006334100153</v>
+        <v>1.342726850295867</v>
       </c>
     </row>
     <row r="27">
@@ -1061,14 +1061,14 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.379339499512105</v>
+        <v>3.227845548535613</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.877707299631502</v>
+        <v>7.672378948721146</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>5.933065910292769</v>
+        <v>6.036568664714752</v>
       </c>
     </row>
     <row r="28">
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.668742439141641</v>
+        <v>2.529346697318162</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.368526619180908</v>
+        <v>6.348960042465214</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>5.100598689615818</v>
+        <v>5.039374608617993</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>3.035456442489962</v>
+        <v>2.997770141014504</v>
       </c>
     </row>
     <row r="30">
@@ -1123,16 +1123,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.010120808495263</v>
+        <v>3.942646945229833</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.291306058003597</v>
+        <v>8.148459837820536</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>22.07076398978082</v>
+        <v>20.62579090336838</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>6.252297723590829</v>
+        <v>5.932814654294209</v>
       </c>
     </row>
     <row r="31">
